--- a/data/STA Data/Pruned Data/IBSC Teacher STA M4.xlsx
+++ b/data/STA Data/Pruned Data/IBSC Teacher STA M4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3c85ca06803d405f/2017-2019/Documents/RF/IBSC Survey Feedback/Master Dash/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3c85ca06803d405f/2017-2019/Documents/RF/IBSC Survey Feedback/Master Dash/data/STA Data/Pruned Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_FA030B951CF31F93C63A1CB1488986C90D0F8899" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6B51264-4836-470C-A4AE-A20E2B89DECA}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="11_FA030B951CF31F93C63A1CB1488986C90D0F8899" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3055B500-8B2B-4CAA-A6A7-CC6A77EE7168}"/>
   <bookViews>
-    <workbookView xWindow="43170" yWindow="4960" windowWidth="28100" windowHeight="15910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38290" yWindow="-10" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Node Attributes" sheetId="1" r:id="rId1"/>
@@ -887,16 +887,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BE20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
+      <selection activeCell="AY2" sqref="AY2:AZ2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="32.08203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.08203125" customWidth="1"/>
+    <col min="25" max="25" width="27.9140625" customWidth="1"/>
+    <col min="28" max="28" width="27.1640625" customWidth="1"/>
+    <col min="29" max="29" width="15.33203125" customWidth="1"/>
+    <col min="30" max="30" width="9.1640625" customWidth="1"/>
+    <col min="31" max="31" width="35.9140625" customWidth="1"/>
+    <col min="32" max="32" width="8.83203125" customWidth="1"/>
+    <col min="33" max="33" width="31.9140625" customWidth="1"/>
+    <col min="34" max="34" width="8.08203125" customWidth="1"/>
+    <col min="35" max="35" width="29.33203125" customWidth="1"/>
+    <col min="36" max="36" width="26.4140625" customWidth="1"/>
+    <col min="37" max="37" width="37.1640625" customWidth="1"/>
+    <col min="38" max="38" width="15.33203125" customWidth="1"/>
+    <col min="39" max="39" width="11.75" customWidth="1"/>
+    <col min="40" max="40" width="33.6640625" customWidth="1"/>
+    <col min="41" max="41" width="24.25" customWidth="1"/>
+    <col min="42" max="42" width="23.08203125" customWidth="1"/>
+    <col min="43" max="43" width="44.4140625" customWidth="1"/>
+    <col min="44" max="44" width="41.08203125" customWidth="1"/>
+    <col min="45" max="45" width="17.25" customWidth="1"/>
+    <col min="46" max="46" width="37.83203125" customWidth="1"/>
+    <col min="47" max="47" width="49" customWidth="1"/>
+    <col min="48" max="48" width="41.6640625" customWidth="1"/>
+    <col min="49" max="49" width="36.58203125" customWidth="1"/>
+    <col min="50" max="50" width="38.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1069,7 +1096,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:57" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -1242,7 +1269,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:57" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>80</v>
       </c>
@@ -1415,7 +1442,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:57" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>93</v>
       </c>
@@ -1588,7 +1615,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:57" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>100</v>
       </c>
@@ -1761,7 +1788,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:57" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>104</v>
       </c>
@@ -1934,7 +1961,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:57" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>106</v>
       </c>
@@ -2107,7 +2134,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:57" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>108</v>
       </c>
@@ -2280,7 +2307,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:57" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>112</v>
       </c>
@@ -2453,7 +2480,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:57" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>114</v>
       </c>
@@ -2626,7 +2653,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:57" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>118</v>
       </c>
@@ -2799,7 +2826,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:57" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>120</v>
       </c>
@@ -2972,7 +2999,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:57" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>123</v>
       </c>
@@ -3145,7 +3172,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:57" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>127</v>
       </c>
@@ -3318,7 +3345,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:57" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>130</v>
       </c>
@@ -3491,7 +3518,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:57" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>133</v>
       </c>
@@ -3664,7 +3691,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:57" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>136</v>
       </c>
@@ -3837,7 +3864,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:57" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>139</v>
       </c>
@@ -4010,7 +4037,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:57" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>142</v>
       </c>
@@ -4183,7 +4210,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:57" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>145</v>
       </c>
@@ -4370,9 +4397,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>147</v>
       </c>
@@ -4386,7 +4413,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -4400,7 +4427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -4414,7 +4441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>57</v>
       </c>
@@ -4428,7 +4455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>57</v>
       </c>
@@ -4442,7 +4469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -4456,7 +4483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>57</v>
       </c>
@@ -4470,7 +4497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>57</v>
       </c>
@@ -4484,7 +4511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>57</v>
       </c>
@@ -4498,7 +4525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>57</v>
       </c>
@@ -4512,7 +4539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>57</v>
       </c>
@@ -4526,7 +4553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>57</v>
       </c>
@@ -4540,7 +4567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>57</v>
       </c>
@@ -4554,7 +4581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>57</v>
       </c>
@@ -4568,7 +4595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>57</v>
       </c>
@@ -4582,7 +4609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>57</v>
       </c>
@@ -4596,7 +4623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>57</v>
       </c>
@@ -4610,7 +4637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>57</v>
       </c>
@@ -4624,7 +4651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -4652,9 +4679,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>147</v>
       </c>
@@ -4668,7 +4695,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -4682,7 +4709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -4696,7 +4723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>57</v>
       </c>
@@ -4710,7 +4737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>57</v>
       </c>
@@ -4724,7 +4751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -4738,7 +4765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>57</v>
       </c>
@@ -4752,7 +4779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>57</v>
       </c>
@@ -4766,7 +4793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>57</v>
       </c>
@@ -4780,7 +4807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>57</v>
       </c>
@@ -4794,7 +4821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>57</v>
       </c>
@@ -4808,7 +4835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>57</v>
       </c>
@@ -4822,7 +4849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>57</v>
       </c>
@@ -4836,7 +4863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>57</v>
       </c>
@@ -4850,7 +4877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>57</v>
       </c>
@@ -4864,7 +4891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>57</v>
       </c>
@@ -4878,7 +4905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>57</v>
       </c>
@@ -4892,7 +4919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>57</v>
       </c>
@@ -4906,7 +4933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -4934,9 +4961,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>147</v>
       </c>
@@ -4950,7 +4977,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -4964,7 +4991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -4978,7 +5005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>57</v>
       </c>
@@ -4992,7 +5019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>57</v>
       </c>
@@ -5006,7 +5033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -5020,7 +5047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>57</v>
       </c>
@@ -5034,7 +5061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>57</v>
       </c>
@@ -5048,7 +5075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>57</v>
       </c>
@@ -5062,7 +5089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>57</v>
       </c>
@@ -5076,7 +5103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>57</v>
       </c>
@@ -5090,7 +5117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>57</v>
       </c>
@@ -5104,7 +5131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>57</v>
       </c>
@@ -5118,7 +5145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>57</v>
       </c>
@@ -5132,7 +5159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>57</v>
       </c>
@@ -5146,7 +5173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>57</v>
       </c>
@@ -5160,7 +5187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>57</v>
       </c>
@@ -5174,7 +5201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>57</v>
       </c>
@@ -5188,7 +5215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -5216,9 +5243,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>147</v>
       </c>
@@ -5232,7 +5259,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -5246,7 +5273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -5260,7 +5287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>57</v>
       </c>
@@ -5274,7 +5301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>57</v>
       </c>
@@ -5288,7 +5315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -5302,7 +5329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>57</v>
       </c>
@@ -5316,7 +5343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>57</v>
       </c>
@@ -5330,7 +5357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>57</v>
       </c>
@@ -5344,7 +5371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>57</v>
       </c>
@@ -5358,7 +5385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>57</v>
       </c>
@@ -5372,7 +5399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>57</v>
       </c>
@@ -5386,7 +5413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>57</v>
       </c>
@@ -5400,7 +5427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>57</v>
       </c>
@@ -5414,7 +5441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>57</v>
       </c>
@@ -5428,7 +5455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>57</v>
       </c>
@@ -5442,7 +5469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>57</v>
       </c>
@@ -5456,7 +5483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>57</v>
       </c>
@@ -5470,7 +5497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -5498,9 +5525,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>147</v>
       </c>
@@ -5514,7 +5541,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -5528,7 +5555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -5542,7 +5569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>57</v>
       </c>
@@ -5556,7 +5583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>57</v>
       </c>
@@ -5570,7 +5597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -5584,7 +5611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>57</v>
       </c>
@@ -5598,7 +5625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>57</v>
       </c>
@@ -5612,7 +5639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>57</v>
       </c>
@@ -5626,7 +5653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>57</v>
       </c>
@@ -5640,7 +5667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>57</v>
       </c>
@@ -5654,7 +5681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>57</v>
       </c>
@@ -5668,7 +5695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>57</v>
       </c>
@@ -5682,7 +5709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>57</v>
       </c>
@@ -5696,7 +5723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>57</v>
       </c>
@@ -5710,7 +5737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>57</v>
       </c>
@@ -5724,7 +5751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>57</v>
       </c>
@@ -5738,7 +5765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>57</v>
       </c>
@@ -5752,7 +5779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -5780,9 +5807,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>147</v>
       </c>
@@ -5796,7 +5823,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -5810,7 +5837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -5824,7 +5851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>57</v>
       </c>
@@ -5838,7 +5865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>57</v>
       </c>
@@ -5852,7 +5879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -5866,7 +5893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>57</v>
       </c>
@@ -5880,7 +5907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>57</v>
       </c>
@@ -5894,7 +5921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>57</v>
       </c>
@@ -5908,7 +5935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>57</v>
       </c>
@@ -5922,7 +5949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>57</v>
       </c>
@@ -5936,7 +5963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>57</v>
       </c>
@@ -5950,7 +5977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>57</v>
       </c>
@@ -5964,7 +5991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>57</v>
       </c>
@@ -5978,7 +6005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>57</v>
       </c>
@@ -5992,7 +6019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>57</v>
       </c>
@@ -6006,7 +6033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>57</v>
       </c>
@@ -6020,7 +6047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>57</v>
       </c>
@@ -6034,7 +6061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>57</v>
       </c>
